--- a/python_automation/Micro april.xlsx
+++ b/python_automation/Micro april.xlsx
@@ -1064,7 +1064,7 @@
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1094,6 +1094,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1150,7 +1156,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1215,6 +1221,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1238,11 +1248,11 @@
   </sheetPr>
   <dimension ref="A1:AA373"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y22" activeCellId="0" sqref="Y22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A358" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D372" activeCellId="0" sqref="D372"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.27"/>
@@ -29868,7 +29878,7 @@
         <v>334</v>
       </c>
       <c r="D365" s="12" t="n">
-        <v>44696</v>
+        <v>44666</v>
       </c>
       <c r="E365" s="3" t="n">
         <v>12000</v>
@@ -29936,7 +29946,7 @@
       <c r="Z365" s="3"/>
       <c r="AA365" s="9"/>
     </row>
-    <row r="366" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
         <v>549</v>
       </c>
@@ -29946,8 +29956,8 @@
       <c r="C366" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="D366" s="12" t="n">
-        <v>44696</v>
+      <c r="D366" s="16" t="n">
+        <v>44666</v>
       </c>
       <c r="E366" s="1" t="n">
         <v>24000</v>
@@ -30012,7 +30022,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
         <v>550</v>
       </c>
@@ -30022,8 +30032,8 @@
       <c r="C367" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D367" s="12" t="n">
-        <v>44696</v>
+      <c r="D367" s="16" t="n">
+        <v>44666</v>
       </c>
       <c r="E367" s="1" t="n">
         <v>60000</v>
@@ -30088,7 +30098,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
         <v>551</v>
       </c>
@@ -30098,8 +30108,8 @@
       <c r="C368" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="D368" s="12" t="n">
-        <v>44696</v>
+      <c r="D368" s="16" t="n">
+        <v>44666</v>
       </c>
       <c r="E368" s="1" t="n">
         <v>24000</v>
@@ -30164,7 +30174,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
         <v>552</v>
       </c>
@@ -30174,8 +30184,8 @@
       <c r="C369" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="D369" s="12" t="n">
-        <v>44696</v>
+      <c r="D369" s="16" t="n">
+        <v>44666</v>
       </c>
       <c r="E369" s="1" t="n">
         <v>24000</v>
@@ -30240,7 +30250,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
         <v>553</v>
       </c>
@@ -30250,8 +30260,8 @@
       <c r="C370" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D370" s="12" t="n">
-        <v>44696</v>
+      <c r="D370" s="16" t="n">
+        <v>44666</v>
       </c>
       <c r="E370" s="1" t="n">
         <v>24000</v>
@@ -30316,7 +30326,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
         <v>554</v>
       </c>
@@ -30326,8 +30336,8 @@
       <c r="C371" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D371" s="12" t="n">
-        <v>44696</v>
+      <c r="D371" s="16" t="n">
+        <v>44666</v>
       </c>
       <c r="E371" s="1" t="n">
         <v>60000</v>
@@ -30392,7 +30402,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
         <v>555</v>
       </c>
@@ -30402,8 +30412,8 @@
       <c r="C372" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D372" s="12" t="n">
-        <v>44696</v>
+      <c r="D372" s="16" t="n">
+        <v>44666</v>
       </c>
       <c r="E372" s="1" t="n">
         <v>24000</v>
@@ -30497,11 +30507,11 @@
   </sheetPr>
   <dimension ref="J15:L15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.45"/>
@@ -30510,13 +30520,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="3.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="3.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.82"/>
   </cols>
   <sheetData>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="16"/>
-      <c r="L15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
